--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos salgados.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos salgados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Biscoito Cracker Adria Folhata 170g</t>
+          <t>Biscoito Água E Sal Liane 330g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/572b0de4-7303-460d-8151-98ad806a11cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c07b306a-2415-491e-82dd-b1a5da3787b3.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896080871141</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella 350gr Cream Cracker</t>
+          <t>Biscoito Nesfit 160g Cacau E Cereais</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a18a8b5-72f0-471e-92b4-b52141490bcb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee27e258-0606-44cd-9143-d4ef89e43fb3.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000304556</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360gr Cream Cracker</t>
+          <t>Biscoito Nesfit 160g Banana/aveia/canela</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5e2693f-4e99-4837-a4df-8772aa5078bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6ed2a84-5e33-4580-9df6-7ee6cf08b5d9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891000304839</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Marilan Pacote 350g</t>
+          <t>Biscoito Nesfit 160g Morango E Cereais</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c631f97-9016-4bf5-8d13-1d1b05fc5e80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb99d14e-5d9a-43f1-8062-812ee7c3ff47.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891000304556</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella 350gr Agua E Sal</t>
+          <t>Biscoito Povilho Cassini 100g Doce Queijo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9b5121b-dcb4-4e05-9ca8-3c3a7e5ef139.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21b7abc-ea52-44c1-8638-3184b9549294.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898416780103</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360gr Agua Sal</t>
+          <t>Biscoito Cream Cracker Marilan Pacote 350g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df72907f-14ae-4ca4-9c6c-c8d53c88323c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c631f97-9016-4bf5-8d13-1d1b05fc5e80.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896003738605</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biscoito Club Social 144g Integral</t>
+          <t>Biscoito Vitarella Deliciata 350g Original</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ac9dd60-c052-4f89-b06c-c7c4e348609b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b108eaf4-d7f7-424d-8200-d3e5dcd150aa.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896213005757</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Piraque 215g Agua E Gergelim</t>
+          <t>Biscoito Vitarella 350gr Agua E Sal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ab59b87-b89e-471a-adbc-0deb3627c7b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9b5121b-dcb4-4e05-9ca8-3c3a7e5ef139.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896213006242</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Panco 200g Agua E Sal</t>
+          <t>Biscoito Panco Wind 500gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/498fba64-e655-410d-be42-a3a6d6c00cbc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4c649d-a604-4833-bab1-1b04e7b3c11d.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891203021120</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biscoito Povilho Cassini 100g Salgado Tradicional</t>
+          <t>Biscoito Liane Cream Cracker Integral 7 Graos 330g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c892ff20-a0c1-49e9-baeb-436e5c5721d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/142d4702-9b13-48b0-9e67-c572573d329f.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896080876146</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Biscoito Deliciosos Salgadinho Panco 500g</t>
+          <t>Biscoito Crean Cracker Integral Liane 330g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/914220c2-8e8c-4ddf-8895-c153506ee66e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c521cbe4-5ace-4dc6-916d-bd826f783472.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891203069917</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Biscoito Nesfit 160g Banana/aveia/canela</t>
+          <t>Bisc Cream Craker Liane 330g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6ed2a84-5e33-4580-9df6-7ee6cf08b5d9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54e3739b-3c1a-4142-b648-700343d4d9d7.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896080873145</t>
         </is>
       </c>
     </row>
@@ -785,7 +850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biscoito Nesfit 160g Cacau E Cereais</t>
+          <t>Bisc Cracker Panco 200g Vida</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -795,7 +860,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee27e258-0606-44cd-9143-d4ef89e43fb3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c6d2387-97e0-4a94-ab08-2c0636ca23d4.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891203069900</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Biscoito Povilho Cassini 80g Argolinha</t>
+          <t>Biscoito Cream Cracker Panco 400g Integral</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,59</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38c35147-c24b-47b4-a40c-ee30923e8e91.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de1a8307-66cb-4f68-87f5-4430dcf66d03.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891203069917</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Biscoito Água E Sal Liane 330g</t>
+          <t>Biscoito Piraque 215g Agua E Gergelim</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c07b306a-2415-491e-82dd-b1a5da3787b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ab59b87-b89e-471a-adbc-0deb3627c7b7.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896024761729</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Biscoito Panco Wind 500gr</t>
+          <t>Biscoito Nesfit Delice 140g Cacau/avelã</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4c649d-a604-4833-bab1-1b04e7b3c11d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4752e61-214c-4b45-9b3f-db7278307d78.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891000255773</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Biscoito Nesfit Delice 140g Maçã/canela</t>
+          <t>Biscoito Panco Cream Cracker 200g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b46f4e6a-a4cf-466b-a2d7-ba254c380633.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b561101-82e3-409a-b947-17996ff4102b.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891203020765</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Biscoito Nesfit Delice 140g Cacau/avelã</t>
+          <t>Biscoito Panco 200g Agua E Sal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4752e61-214c-4b45-9b3f-db7278307d78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/498fba64-e655-410d-be42-a3a6d6c00cbc.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891203050526</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Biscoito Cream Cracker Tradicional Vitarella Crocks Pacote 350g</t>
+          <t>Biscoito Panetini Equlibri 40g Qjo Suave</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b0a2f63-75ed-4de7-b2e7-dec7e75e973e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22661025-4732-4b9d-b326-fe5ff84a3dec.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7892840267940</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Biscoito Integral Belvita Cacau 75g</t>
+          <t>Biscoito Panetini Equilibri 40g Pres Parma</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ea788cb-113a-4e45-971a-b8d40f14ff9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c64f3e-d0b1-47d0-aaa2-14a1f5a4563d.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7892840267841</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Biscoito Nesfit 160g Morango E Cereais</t>
+          <t>Biscoito Integral De Cacau, Aveia E Mel Cereale Bauducco 170g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb99d14e-5d9a-43f1-8062-812ee7c3ff47.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3be73f2-2bb8-4f0f-840f-f7839063c257.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891962045160</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Biscoito Panetini Equlibri 40g Qjo Suave</t>
+          <t>Biscoito Integral Bauducco Cereale Cacau E Castanha 170g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22661025-4732-4b9d-b326-fe5ff84a3dec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f96ee914-e03c-4764-adcc-c404e653ad81.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891962045160</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Biscoito Panetini Equilibri 40g Pres Parma</t>
+          <t>Biscoito Nesfit Delice 140g Maçã/canela</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2c64f3e-d0b1-47d0-aaa2-14a1f5a4563d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b46f4e6a-a4cf-466b-a2d7-ba254c380633.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891000289747</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1202,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Biscoito Integral Bauducco Cereale Cacau E Castanha 170g</t>
+          <t>Bis Bauducco Cereale 147g Damas/lar</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1092,7 +1212,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f96ee914-e03c-4764-adcc-c404e653ad81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/704f18a4-2dbe-48a8-8b82-9dd003ad0fc4.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891962051079</t>
         </is>
       </c>
     </row>
@@ -1109,449 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Biscoito Panco Cream Cracker 200g</t>
+          <t>Biscoito Cereale Bauducco 141g Maça/uva</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b561101-82e3-409a-b947-17996ff4102b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Biscoito Bel Vita 75g Leite E Aveia</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4e5ed1c-b9ae-4fbe-99d7-6bcfb76a67a1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Biscoito Integral De Cacau, Aveia E Mel Cereale Bauducco 170g</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3be73f2-2bb8-4f0f-840f-f7839063c257.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Biscoito Cereale Bauducco 141g Maça/uva</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db558db6-7ae5-4e83-86db-274b1774baa2.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Biscoito Vitarella Cracker Crock 350g Queijo</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68124210-651a-406b-a575-45fc5834cd15.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Biscoito Bel Vita 75g Mel E Cacau</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a17fe95e-031f-40ad-8cc2-6cdc8c0ead69.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Biscoito Povilho Cassini 100g Doce Queijo</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21b7abc-ea52-44c1-8638-3184b9549294.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Biscoito Bel Vita 75g Maça Canela</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b51c0d7-70a7-419e-9d59-f1f08dc1b358.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Biscoito Eqlibri Tomate Temp 40g</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1fea144-1421-49fd-921f-c1bac62e010e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Biscoito Cream Cracker Panco 400g Integral</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 8,59</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de1a8307-66cb-4f68-87f5-4430dcf66d03.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Biscoito Crean Cracker Integral Liane 330g</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c521cbe4-5ace-4dc6-916d-bd826f783472.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Bisc Cracker Panco 200g Vida</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c6d2387-97e0-4a94-ab08-2c0636ca23d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Bis Bauducco Cereale 147g Damas/lar</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/704f18a4-2dbe-48a8-8b82-9dd003ad0fc4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Biscoito Vitarella Cream Cracker 367,5g Integral</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63759650-9d6f-44d1-bf54-2553dd3617c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Bisc Cream Craker Manteiga Liane 330g</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff1eb740-eadd-4362-a0f6-bcd4b2b7436e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Bisc Cream Craker Liane 330g</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54e3739b-3c1a-4142-b648-700343d4d9d7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Biscoitos salgados</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Biscoito Liane Cream Cracker Integral 7 Graos 330g</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/142d4702-9b13-48b0-9e67-c572573d329f.jpg</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891962051079</t>
         </is>
       </c>
     </row>
